--- a/scripts/Competences/DS_N.xlsx
+++ b/scripts/Competences/DS_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\scripts\Competences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A418B17D-7A17-4561-9739-CD7EF25767C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782337E7-8E16-46AA-867A-FB45E9738329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{343E057D-976D-4681-BFD1-AAFA1B4BE677}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="284">
   <si>
     <t>A</t>
   </si>
@@ -826,12 +826,6 @@
     <t>Nom20</t>
   </si>
   <si>
-    <t>Nom21</t>
-  </si>
-  <si>
-    <t>Nom22</t>
-  </si>
-  <si>
     <t>Comment1</t>
   </si>
   <si>
@@ -890,12 +884,6 @@
   </si>
   <si>
     <t>Comment20</t>
-  </si>
-  <si>
-    <t>Comment21</t>
-  </si>
-  <si>
-    <t>Comment22</t>
   </si>
   <si>
     <t>NT</t>
@@ -906,7 +894,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1289,10 +1277,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1662,51 +1650,51 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
-        <f>SUM(C4:C123)</f>
+        <f t="shared" ref="C2:N2" si="0">SUM(C4:C123)</f>
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(D4:D123)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <f>SUM(E4:E123)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <f>SUM(F4:F123)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <f>SUM(G4:G123)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H2" s="3">
-        <f>SUM(H4:H123)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <f>SUM(I4:I123)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J2" s="3">
-        <f>SUM(J4:J123)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K2" s="3">
-        <f>SUM(K4:K123)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L2" s="3">
-        <f>SUM(L4:L123)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M2" s="3">
-        <f>SUM(M4:M123)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N2" s="3">
-        <f>SUM(N4:N123)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6430,8 +6418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C2D99-8F94-4830-AEC3-FAE002AB4226}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6571,51 +6559,51 @@
         <v>242</v>
       </c>
       <c r="C4" s="47">
-        <f>C2*C3/$P$3*20</f>
+        <f t="shared" ref="C4:N4" si="0">C2*C3/$P$3*20</f>
         <v>0.95238095238095233</v>
       </c>
       <c r="D4" s="47">
-        <f>D2*D3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="E4" s="47">
-        <f>E2*E3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="F4" s="47">
-        <f>F2*F3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="G4" s="47">
-        <f>G2*G3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="H4" s="47">
-        <f>H2*H3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="I4" s="47">
-        <f>I2*I3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="J4" s="47">
-        <f>J2*J3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>1.9047619047619047</v>
       </c>
       <c r="K4" s="47">
-        <f>K2*K3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>1.9047619047619047</v>
       </c>
       <c r="L4" s="47">
-        <f>L2*L3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>1.9047619047619047</v>
       </c>
       <c r="M4" s="47">
-        <f>M2*M3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>5.7142857142857135</v>
       </c>
       <c r="N4" s="47">
-        <f>N2*N3/$P$3*20</f>
+        <f t="shared" si="0"/>
         <v>1.9047619047619047</v>
       </c>
     </row>
@@ -6663,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P5" s="45">
         <f>SUMPRODUCT($C$2:$N$2,C5:N5)</f>
@@ -6718,14 +6706,14 @@
         <v>3</v>
       </c>
       <c r="O6" s="45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P6" s="45">
-        <f t="shared" ref="P6:P26" si="0">SUMPRODUCT($C$2:$N$2,C6:N6)</f>
+        <f t="shared" ref="P6:P26" si="1">SUMPRODUCT($C$2:$N$2,C6:N6)</f>
         <v>82</v>
       </c>
       <c r="Q6" s="48">
-        <f t="shared" ref="Q6:Q26" si="1">P6*20/$P$3</f>
+        <f t="shared" ref="Q6:Q26" si="2">P6*20/$P$3</f>
         <v>15.619047619047619</v>
       </c>
     </row>
@@ -6773,14 +6761,14 @@
         <v>0</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P7" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="Q7" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3809523809523814</v>
       </c>
     </row>
@@ -6828,14 +6816,14 @@
         <v>5</v>
       </c>
       <c r="O8" s="45" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P8" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="Q8" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.666666666666666</v>
       </c>
     </row>
@@ -6856,16 +6844,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J9" s="46">
         <v>0</v>
@@ -6883,14 +6871,14 @@
         <v>3</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P9" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="Q9" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2857142857142856</v>
       </c>
     </row>
@@ -6938,14 +6926,14 @@
         <v>5</v>
       </c>
       <c r="O10" s="45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P10" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="Q10" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0476190476190474</v>
       </c>
     </row>
@@ -6993,14 +6981,14 @@
         <v>5</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P11" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="Q11" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -7024,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H12" s="46">
         <v>1</v>
@@ -7048,14 +7036,14 @@
         <v>1</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P12" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="Q12" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7142857142857135</v>
       </c>
     </row>
@@ -7082,7 +7070,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I13" s="46">
         <v>0</v>
@@ -7103,14 +7091,14 @@
         <v>3</v>
       </c>
       <c r="O13" s="45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P13" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="Q13" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2857142857142856</v>
       </c>
     </row>
@@ -7140,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J14" s="46">
         <v>2</v>
@@ -7158,14 +7146,14 @@
         <v>0</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P14" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="Q14" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7619047619047628</v>
       </c>
     </row>
@@ -7213,14 +7201,14 @@
         <v>0</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P15" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q15" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -7256,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L16" s="46">
         <v>5</v>
@@ -7268,14 +7256,14 @@
         <v>5</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P16" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="Q16" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1428571428571423</v>
       </c>
     </row>
@@ -7311,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L17" s="46">
         <v>5</v>
@@ -7323,14 +7311,14 @@
         <v>3</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P17" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="Q17" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.666666666666666</v>
       </c>
     </row>
@@ -7363,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K18" s="46">
         <v>0</v>
@@ -7378,14 +7366,14 @@
         <v>2</v>
       </c>
       <c r="O18" s="45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P18" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="Q18" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8571428571428568</v>
       </c>
     </row>
@@ -7412,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J19" s="46">
         <v>0</v>
@@ -7433,14 +7421,14 @@
         <v>0</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P19" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="Q19" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6190476190476191</v>
       </c>
     </row>
@@ -7464,7 +7452,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H20" s="46">
         <v>1</v>
@@ -7488,14 +7476,14 @@
         <v>0</v>
       </c>
       <c r="O20" s="45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P20" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q20" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -7516,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G21" s="46">
         <v>0</v>
@@ -7543,14 +7531,14 @@
         <v>0</v>
       </c>
       <c r="O21" s="45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P21" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7568,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F22" s="46">
         <v>0</v>
@@ -7598,14 +7586,14 @@
         <v>0</v>
       </c>
       <c r="O22" s="45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P22" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="Q22" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0476190476190474</v>
       </c>
     </row>
@@ -7653,14 +7641,14 @@
         <v>5</v>
       </c>
       <c r="O23" s="45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P23" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="Q23" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0952380952380949</v>
       </c>
     </row>
@@ -7687,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I24" s="46">
         <v>0</v>
@@ -7708,126 +7696,22 @@
         <v>1</v>
       </c>
       <c r="O24" s="45" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P24" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="Q24" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="B25" s="45">
-        <v>21</v>
-      </c>
-      <c r="C25" s="46">
-        <v>0</v>
-      </c>
-      <c r="D25" s="46">
-        <v>0</v>
-      </c>
-      <c r="E25" s="46">
-        <v>0</v>
-      </c>
-      <c r="F25" s="46">
-        <v>0</v>
-      </c>
-      <c r="G25" s="46">
-        <v>0</v>
-      </c>
-      <c r="H25" s="46">
-        <v>0</v>
-      </c>
-      <c r="I25" s="46">
-        <v>0</v>
-      </c>
-      <c r="J25" s="46">
-        <v>0</v>
-      </c>
-      <c r="K25" s="46">
-        <v>0</v>
-      </c>
-      <c r="L25" s="46">
-        <v>0</v>
-      </c>
-      <c r="M25" s="46">
-        <v>0</v>
-      </c>
-      <c r="N25" s="46">
-        <v>0</v>
-      </c>
-      <c r="O25" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="P25" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="B26" s="45">
-        <v>22</v>
-      </c>
-      <c r="C26" s="46">
-        <v>0</v>
-      </c>
-      <c r="D26" s="46">
-        <v>0</v>
-      </c>
-      <c r="E26" s="46">
-        <v>5</v>
-      </c>
-      <c r="F26" s="46">
-        <v>0</v>
-      </c>
-      <c r="G26" s="46">
-        <v>0</v>
-      </c>
-      <c r="H26" s="46">
-        <v>1</v>
-      </c>
-      <c r="I26" s="46">
-        <v>1</v>
-      </c>
-      <c r="J26" s="46">
-        <v>1</v>
-      </c>
-      <c r="K26" s="46">
-        <v>0</v>
-      </c>
-      <c r="L26" s="46">
-        <v>5</v>
-      </c>
-      <c r="M26" s="46">
-        <v>5</v>
-      </c>
-      <c r="N26" s="46">
-        <v>0</v>
-      </c>
-      <c r="O26" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="P26" s="45">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="Q26" s="48">
-        <f t="shared" si="1"/>
-        <v>6.4761904761904763</v>
-      </c>
+      <c r="Q26" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>

--- a/scripts/Competences/DS_N.xlsx
+++ b/scripts/Competences/DS_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\scripts\Competences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782337E7-8E16-46AA-867A-FB45E9738329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B2243B-580F-47CF-99EA-ADB33AB0C5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{343E057D-976D-4681-BFD1-AAFA1B4BE677}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Bareme" sheetId="2" r:id="rId1"/>
     <sheet name="Notes" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -6418,8 +6416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C2D99-8F94-4830-AEC3-FAE002AB4226}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6709,11 +6707,11 @@
         <v>264</v>
       </c>
       <c r="P6" s="45">
-        <f t="shared" ref="P6:P26" si="1">SUMPRODUCT($C$2:$N$2,C6:N6)</f>
+        <f t="shared" ref="P6:P24" si="1">SUMPRODUCT($C$2:$N$2,C6:N6)</f>
         <v>82</v>
       </c>
       <c r="Q6" s="48">
-        <f t="shared" ref="Q6:Q26" si="2">P6*20/$P$3</f>
+        <f t="shared" ref="Q6:Q24" si="2">P6*20/$P$3</f>
         <v>15.619047619047619</v>
       </c>
     </row>

--- a/scripts/Competences/DS_N.xlsx
+++ b/scripts/Competences/DS_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\scripts\Competences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B2243B-580F-47CF-99EA-ADB33AB0C5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87839883-3235-4E83-A9C8-852BD2B4B0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{343E057D-976D-4681-BFD1-AAFA1B4BE677}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{343E057D-976D-4681-BFD1-AAFA1B4BE677}"/>
   </bookViews>
   <sheets>
     <sheet name="Bareme" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="283">
   <si>
     <t>A</t>
   </si>
@@ -750,9 +750,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>Q10</t>
   </si>
   <si>
     <t>Barème</t>
@@ -1593,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F423084-D9DD-4625-BC73-90B5D74F5303}">
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -1604,11 +1601,10 @@
     <col min="1" max="1" width="6.26953125" style="31" customWidth="1"/>
     <col min="2" max="2" width="62.7265625" style="32" customWidth="1"/>
     <col min="3" max="13" width="2.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.453125" style="3"/>
+    <col min="14" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>230</v>
       </c>
@@ -1642,13 +1638,10 @@
       <c r="M1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
-        <f t="shared" ref="C2:N2" si="0">SUM(C4:C123)</f>
+        <f t="shared" ref="C2:M2" si="0">SUM(C4:C123)</f>
         <v>1</v>
       </c>
       <c r="D2" s="3">
@@ -1691,12 +1684,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N2" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>5</v>
       </c>
@@ -1730,11 +1719,8 @@
       <c r="M3" s="3">
         <v>10</v>
       </c>
-      <c r="N3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
@@ -1752,9 +1738,8 @@
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1772,9 +1757,8 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1814,11 +1798,8 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1858,11 +1839,8 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1902,11 +1880,8 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1946,11 +1921,8 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1990,11 +1962,8 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2012,9 +1981,8 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -2054,11 +2022,8 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -2098,11 +2063,8 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -2142,11 +2104,8 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -2164,9 +2123,8 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -2206,11 +2164,8 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -2250,11 +2205,8 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -2294,11 +2246,8 @@
       <c r="M18" s="7">
         <v>3</v>
       </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -2338,11 +2287,8 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
@@ -2382,11 +2328,8 @@
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2426,11 +2369,8 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
@@ -2470,11 +2410,8 @@
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -2514,11 +2451,8 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -2558,11 +2492,8 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>42</v>
       </c>
@@ -2602,11 +2533,8 @@
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -2624,9 +2552,8 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
@@ -2666,11 +2593,8 @@
       <c r="M27" s="7">
         <v>0</v>
       </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
@@ -2710,11 +2634,8 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -2754,11 +2675,8 @@
       <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>52</v>
       </c>
@@ -2798,11 +2716,8 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -2816,9 +2731,8 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-    </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>54</v>
       </c>
@@ -2836,9 +2750,8 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-    </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>56</v>
       </c>
@@ -2856,9 +2769,8 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>58</v>
       </c>
@@ -2898,11 +2810,8 @@
       <c r="M34" s="12">
         <v>0</v>
       </c>
-      <c r="N34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>60</v>
       </c>
@@ -2942,11 +2851,8 @@
       <c r="M35" s="12">
         <v>0</v>
       </c>
-      <c r="N35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>62</v>
       </c>
@@ -2986,11 +2892,8 @@
       <c r="M36" s="12">
         <v>0</v>
       </c>
-      <c r="N36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>64</v>
       </c>
@@ -3030,11 +2933,8 @@
       <c r="M37" s="12">
         <v>0</v>
       </c>
-      <c r="N37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>66</v>
       </c>
@@ -3052,9 +2952,8 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>68</v>
       </c>
@@ -3094,11 +2993,8 @@
       <c r="M39" s="12">
         <v>0</v>
       </c>
-      <c r="N39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>70</v>
       </c>
@@ -3138,11 +3034,8 @@
       <c r="M40" s="12">
         <v>0</v>
       </c>
-      <c r="N40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>72</v>
       </c>
@@ -3182,11 +3075,8 @@
       <c r="M41" s="12">
         <v>0</v>
       </c>
-      <c r="N41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>74</v>
       </c>
@@ -3226,11 +3116,8 @@
       <c r="M42" s="12">
         <v>0</v>
       </c>
-      <c r="N42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>76</v>
       </c>
@@ -3270,11 +3157,8 @@
       <c r="M43" s="12">
         <v>0</v>
       </c>
-      <c r="N43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>78</v>
       </c>
@@ -3314,11 +3198,8 @@
       <c r="M44" s="12">
         <v>0</v>
       </c>
-      <c r="N44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>80</v>
       </c>
@@ -3358,11 +3239,8 @@
       <c r="M45" s="12">
         <v>0</v>
       </c>
-      <c r="N45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>82</v>
       </c>
@@ -3402,11 +3280,8 @@
       <c r="M46" s="12">
         <v>0</v>
       </c>
-      <c r="N46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>84</v>
       </c>
@@ -3446,11 +3321,8 @@
       <c r="M47" s="12">
         <v>0</v>
       </c>
-      <c r="N47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>86</v>
       </c>
@@ -3490,11 +3362,8 @@
       <c r="M48" s="12">
         <v>0</v>
       </c>
-      <c r="N48" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>88</v>
       </c>
@@ -3534,11 +3403,8 @@
       <c r="M49" s="12">
         <v>0</v>
       </c>
-      <c r="N49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>90</v>
       </c>
@@ -3578,11 +3444,8 @@
       <c r="M50" s="12">
         <v>0</v>
       </c>
-      <c r="N50" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>92</v>
       </c>
@@ -3622,11 +3485,8 @@
       <c r="M51" s="12">
         <v>0</v>
       </c>
-      <c r="N51" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>94</v>
       </c>
@@ -3666,11 +3526,8 @@
       <c r="M52" s="12">
         <v>0</v>
       </c>
-      <c r="N52" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>96</v>
       </c>
@@ -3710,11 +3567,8 @@
       <c r="M53" s="12">
         <v>0</v>
       </c>
-      <c r="N53" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>98</v>
       </c>
@@ -3754,11 +3608,8 @@
       <c r="M54" s="12">
         <v>0</v>
       </c>
-      <c r="N54" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>100</v>
       </c>
@@ -3798,11 +3649,8 @@
       <c r="M55" s="12">
         <v>0</v>
       </c>
-      <c r="N55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>102</v>
       </c>
@@ -3820,9 +3668,8 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-    </row>
-    <row r="57" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>104</v>
       </c>
@@ -3862,11 +3709,8 @@
       <c r="M57" s="12">
         <v>0</v>
       </c>
-      <c r="N57" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>106</v>
       </c>
@@ -3906,11 +3750,8 @@
       <c r="M58" s="12">
         <v>0</v>
       </c>
-      <c r="N58" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>108</v>
       </c>
@@ -3950,14 +3791,11 @@
       <c r="M59" s="12">
         <v>0</v>
       </c>
-      <c r="N59" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="41" t="s">
         <v>110</v>
       </c>
@@ -3975,9 +3813,8 @@
       <c r="K61" s="35"/>
       <c r="L61" s="35"/>
       <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-    </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
         <v>112</v>
       </c>
@@ -3995,9 +3832,8 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-    </row>
-    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
         <v>114</v>
       </c>
@@ -4037,11 +3873,8 @@
       <c r="M63" s="17">
         <v>0</v>
       </c>
-      <c r="N63" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
         <v>116</v>
       </c>
@@ -4081,11 +3914,8 @@
       <c r="M64" s="17">
         <v>0</v>
       </c>
-      <c r="N64" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>118</v>
       </c>
@@ -4125,11 +3955,8 @@
       <c r="M65" s="17">
         <v>0</v>
       </c>
-      <c r="N65" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
         <v>120</v>
       </c>
@@ -4169,11 +3996,8 @@
       <c r="M66" s="17">
         <v>0</v>
       </c>
-      <c r="N66" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
         <v>122</v>
       </c>
@@ -4213,11 +4037,8 @@
       <c r="M67" s="17">
         <v>0</v>
       </c>
-      <c r="N67" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>124</v>
       </c>
@@ -4235,9 +4056,8 @@
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-    </row>
-    <row r="69" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="s">
         <v>126</v>
       </c>
@@ -4277,11 +4097,8 @@
       <c r="M69" s="17">
         <v>0</v>
       </c>
-      <c r="N69" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>128</v>
       </c>
@@ -4321,11 +4138,8 @@
       <c r="M70" s="17">
         <v>0</v>
       </c>
-      <c r="N70" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>130</v>
       </c>
@@ -4365,11 +4179,8 @@
       <c r="M71" s="17">
         <v>0</v>
       </c>
-      <c r="N71" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
         <v>132</v>
       </c>
@@ -4409,11 +4220,8 @@
       <c r="M72" s="17">
         <v>0</v>
       </c>
-      <c r="N72" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>134</v>
       </c>
@@ -4453,11 +4261,8 @@
       <c r="M73" s="17">
         <v>0</v>
       </c>
-      <c r="N73" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
         <v>136</v>
       </c>
@@ -4497,11 +4302,8 @@
       <c r="M74" s="17">
         <v>0</v>
       </c>
-      <c r="N74" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>138</v>
       </c>
@@ -4541,11 +4343,8 @@
       <c r="M75" s="17">
         <v>0</v>
       </c>
-      <c r="N75" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
         <v>140</v>
       </c>
@@ -4585,11 +4384,8 @@
       <c r="M76" s="17">
         <v>0</v>
       </c>
-      <c r="N76" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
         <v>142</v>
       </c>
@@ -4629,11 +4425,8 @@
       <c r="M77" s="17">
         <v>0</v>
       </c>
-      <c r="N77" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="s">
         <v>144</v>
       </c>
@@ -4651,9 +4444,8 @@
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-    </row>
-    <row r="79" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
         <v>146</v>
       </c>
@@ -4693,11 +4485,8 @@
       <c r="M79" s="17">
         <v>0</v>
       </c>
-      <c r="N79" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
         <v>148</v>
       </c>
@@ -4737,11 +4526,8 @@
       <c r="M80" s="17">
         <v>0</v>
       </c>
-      <c r="N80" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>150</v>
       </c>
@@ -4781,11 +4567,8 @@
       <c r="M81" s="17">
         <v>0</v>
       </c>
-      <c r="N81" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4799,9 +4582,8 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="42" t="s">
         <v>152</v>
       </c>
@@ -4819,9 +4601,8 @@
       <c r="K83" s="36"/>
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-    </row>
-    <row r="84" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>154</v>
       </c>
@@ -4839,9 +4620,8 @@
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
       <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-    </row>
-    <row r="85" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
         <v>156</v>
       </c>
@@ -4881,11 +4661,8 @@
       <c r="M85" s="21">
         <v>0</v>
       </c>
-      <c r="N85" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
         <v>158</v>
       </c>
@@ -4925,11 +4702,8 @@
       <c r="M86" s="21">
         <v>0</v>
       </c>
-      <c r="N86" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>160</v>
       </c>
@@ -4969,11 +4743,8 @@
       <c r="M87" s="21">
         <v>0</v>
       </c>
-      <c r="N87" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>162</v>
       </c>
@@ -4991,9 +4762,8 @@
       <c r="K88" s="19"/>
       <c r="L88" s="19"/>
       <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-    </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="20" t="s">
         <v>164</v>
       </c>
@@ -5033,11 +4803,8 @@
       <c r="M89" s="21">
         <v>0</v>
       </c>
-      <c r="N89" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="20" t="s">
         <v>166</v>
       </c>
@@ -5077,11 +4844,8 @@
       <c r="M90" s="21">
         <v>0</v>
       </c>
-      <c r="N90" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
         <v>168</v>
       </c>
@@ -5121,11 +4885,8 @@
       <c r="M91" s="21">
         <v>0</v>
       </c>
-      <c r="N91" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="20" t="s">
         <v>170</v>
       </c>
@@ -5165,11 +4926,8 @@
       <c r="M92" s="21">
         <v>0</v>
       </c>
-      <c r="N92" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="20" t="s">
         <v>172</v>
       </c>
@@ -5209,11 +4967,8 @@
       <c r="M93" s="21">
         <v>0</v>
       </c>
-      <c r="N93" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="20" t="s">
         <v>174</v>
       </c>
@@ -5253,11 +5008,8 @@
       <c r="M94" s="21">
         <v>0</v>
       </c>
-      <c r="N94" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>176</v>
       </c>
@@ -5275,9 +5027,8 @@
       <c r="K95" s="19"/>
       <c r="L95" s="19"/>
       <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-    </row>
-    <row r="96" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="20" t="s">
         <v>178</v>
       </c>
@@ -5317,11 +5068,8 @@
       <c r="M96" s="21">
         <v>0</v>
       </c>
-      <c r="N96" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="20" t="s">
         <v>180</v>
       </c>
@@ -5361,11 +5109,8 @@
       <c r="M97" s="21">
         <v>0</v>
       </c>
-      <c r="N97" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="20" t="s">
         <v>182</v>
       </c>
@@ -5405,11 +5150,8 @@
       <c r="M98" s="21">
         <v>0</v>
       </c>
-      <c r="N98" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
         <v>184</v>
       </c>
@@ -5449,11 +5191,8 @@
       <c r="M99" s="21">
         <v>0</v>
       </c>
-      <c r="N99" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="20" t="s">
         <v>186</v>
       </c>
@@ -5493,11 +5232,8 @@
       <c r="M100" s="21">
         <v>0</v>
       </c>
-      <c r="N100" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5511,9 +5247,8 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="43" t="s">
         <v>188</v>
       </c>
@@ -5531,9 +5266,8 @@
       <c r="K102" s="37"/>
       <c r="L102" s="37"/>
       <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-    </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="22" t="s">
         <v>190</v>
       </c>
@@ -5551,9 +5285,8 @@
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
       <c r="M103" s="23"/>
-      <c r="N103" s="23"/>
-    </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="24" t="s">
         <v>192</v>
       </c>
@@ -5593,11 +5326,8 @@
       <c r="M104" s="25">
         <v>0</v>
       </c>
-      <c r="N104" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="24" t="s">
         <v>194</v>
       </c>
@@ -5637,11 +5367,8 @@
       <c r="M105" s="25">
         <v>0</v>
       </c>
-      <c r="N105" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="24" t="s">
         <v>196</v>
       </c>
@@ -5681,11 +5408,8 @@
       <c r="M106" s="25">
         <v>0</v>
       </c>
-      <c r="N106" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="24" t="s">
         <v>198</v>
       </c>
@@ -5725,11 +5449,8 @@
       <c r="M107" s="25">
         <v>0</v>
       </c>
-      <c r="N107" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="24" t="s">
         <v>200</v>
       </c>
@@ -5769,11 +5490,8 @@
       <c r="M108" s="25">
         <v>0</v>
       </c>
-      <c r="N108" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="24" t="s">
         <v>202</v>
       </c>
@@ -5813,11 +5531,8 @@
       <c r="M109" s="25">
         <v>0</v>
       </c>
-      <c r="N109" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="24" t="s">
         <v>204</v>
       </c>
@@ -5857,11 +5572,8 @@
       <c r="M110" s="25">
         <v>0</v>
       </c>
-      <c r="N110" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="22" t="s">
         <v>206</v>
       </c>
@@ -5879,9 +5591,8 @@
       <c r="K111" s="23"/>
       <c r="L111" s="23"/>
       <c r="M111" s="23"/>
-      <c r="N111" s="23"/>
-    </row>
-    <row r="112" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="24" t="s">
         <v>208</v>
       </c>
@@ -5921,11 +5632,8 @@
       <c r="M112" s="25">
         <v>0</v>
       </c>
-      <c r="N112" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="24" t="s">
         <v>210</v>
       </c>
@@ -5965,11 +5673,8 @@
       <c r="M113" s="25">
         <v>0</v>
       </c>
-      <c r="N113" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="24" t="s">
         <v>212</v>
       </c>
@@ -6009,11 +5714,8 @@
       <c r="M114" s="25">
         <v>0</v>
       </c>
-      <c r="N114" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="24" t="s">
         <v>214</v>
       </c>
@@ -6053,11 +5755,8 @@
       <c r="M115" s="25">
         <v>0</v>
       </c>
-      <c r="N115" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="24" t="s">
         <v>216</v>
       </c>
@@ -6097,11 +5796,8 @@
       <c r="M116" s="25">
         <v>0</v>
       </c>
-      <c r="N116" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="24" t="s">
         <v>218</v>
       </c>
@@ -6141,11 +5837,8 @@
       <c r="M117" s="25">
         <v>0</v>
       </c>
-      <c r="N117" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6159,9 +5852,8 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="44" t="s">
         <v>220</v>
       </c>
@@ -6179,9 +5871,8 @@
       <c r="K119" s="38"/>
       <c r="L119" s="38"/>
       <c r="M119" s="38"/>
-      <c r="N119" s="38"/>
-    </row>
-    <row r="120" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="26" t="s">
         <v>222</v>
       </c>
@@ -6199,9 +5890,8 @@
       <c r="K120" s="27"/>
       <c r="L120" s="27"/>
       <c r="M120" s="27"/>
-      <c r="N120" s="27"/>
-    </row>
-    <row r="121" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="28" t="s">
         <v>224</v>
       </c>
@@ -6241,11 +5931,8 @@
       <c r="M121" s="29">
         <v>0</v>
       </c>
-      <c r="N121" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
         <v>226</v>
       </c>
@@ -6263,9 +5950,8 @@
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
       <c r="M122" s="27"/>
-      <c r="N122" s="27"/>
-    </row>
-    <row r="123" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="30" t="s">
         <v>228</v>
       </c>
@@ -6305,27 +5991,24 @@
       <c r="M123" s="29">
         <v>0</v>
       </c>
-      <c r="N123" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="31"/>
       <c r="B124" s="32"/>
     </row>
-    <row r="125" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="31"/>
       <c r="B125" s="32"/>
     </row>
-    <row r="126" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="31"/>
       <c r="B126" s="32"/>
     </row>
-    <row r="127" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="31"/>
       <c r="B127" s="32"/>
     </row>
-    <row r="128" spans="1:14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" s="31"/>
       <c r="B128" s="32"/>
     </row>
@@ -6414,21 +6097,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006C2D99-8F94-4830-AEC3-FAE002AB4226}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.81640625" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" style="45"/>
-    <col min="3" max="14" width="5.90625" style="46" customWidth="1"/>
-    <col min="15" max="16384" width="10.90625" style="45"/>
+    <col min="3" max="13" width="5.90625" style="46" customWidth="1"/>
+    <col min="14" max="16384" width="10.90625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C1" s="46" t="s">
         <v>230</v>
       </c>
@@ -6462,13 +6145,10 @@
       <c r="M1" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="N1" s="46" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="45" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
-        <v>240</v>
       </c>
       <c r="C2" s="46">
         <v>1</v>
@@ -6503,13 +6183,10 @@
       <c r="M2" s="46">
         <v>3</v>
       </c>
-      <c r="N2" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="46">
         <v>5</v>
@@ -6544,70 +6221,63 @@
       <c r="M3" s="46">
         <v>10</v>
       </c>
-      <c r="N3" s="46">
-        <v>10</v>
-      </c>
-      <c r="P3" s="45">
-        <f>SUMPRODUCT(C2:N2,C3:N3)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O3" s="45">
+        <f>SUMPRODUCT(C2:M2,C3:M3)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="47">
+        <f>C2*C3/$O$3*20</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="D4" s="47">
+        <f>D2*D3/$O$3*20</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="E4" s="47">
+        <f>E2*E3/$O$3*20</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="F4" s="47">
+        <f>F2*F3/$O$3*20</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="G4" s="47">
+        <f>G2*G3/$O$3*20</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="H4" s="47">
+        <f>H2*H3/$O$3*20</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="I4" s="47">
+        <f>I2*I3/$O$3*20</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="J4" s="47">
+        <f>J2*J3/$O$3*20</f>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="K4" s="47">
+        <f>K2*K3/$O$3*20</f>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="L4" s="47">
+        <f>L2*L3/$O$3*20</f>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="M4" s="47">
+        <f>M2*M3/$O$3*20</f>
+        <v>6.3157894736842106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>242</v>
-      </c>
-      <c r="C4" s="47">
-        <f t="shared" ref="C4:N4" si="0">C2*C3/$P$3*20</f>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="D4" s="47">
-        <f t="shared" si="0"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="E4" s="47">
-        <f t="shared" si="0"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="F4" s="47">
-        <f t="shared" si="0"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="G4" s="47">
-        <f t="shared" si="0"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="H4" s="47">
-        <f t="shared" si="0"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="I4" s="47">
-        <f t="shared" si="0"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="J4" s="47">
-        <f t="shared" si="0"/>
-        <v>1.9047619047619047</v>
-      </c>
-      <c r="K4" s="47">
-        <f t="shared" si="0"/>
-        <v>1.9047619047619047</v>
-      </c>
-      <c r="L4" s="47">
-        <f t="shared" si="0"/>
-        <v>1.9047619047619047</v>
-      </c>
-      <c r="M4" s="47">
-        <f t="shared" si="0"/>
-        <v>5.7142857142857135</v>
-      </c>
-      <c r="N4" s="47">
-        <f t="shared" si="0"/>
-        <v>1.9047619047619047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
-        <v>243</v>
       </c>
       <c r="B5" s="45">
         <v>1</v>
@@ -6645,24 +6315,21 @@
       <c r="M5" s="46">
         <v>5</v>
       </c>
-      <c r="N5" s="46">
-        <v>2</v>
-      </c>
-      <c r="O5" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="P5" s="45">
-        <f>SUMPRODUCT($C$2:$N$2,C5:N5)</f>
-        <v>47</v>
-      </c>
-      <c r="Q5" s="48">
-        <f>P5*20/$P$3</f>
-        <v>8.9523809523809526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N5" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="O5" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C5:M5)</f>
+        <v>45</v>
+      </c>
+      <c r="P5" s="48">
+        <f>O5*20/$O$3</f>
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" s="45">
         <v>2</v>
@@ -6700,24 +6367,21 @@
       <c r="M6" s="46">
         <v>5</v>
       </c>
-      <c r="N6" s="46">
-        <v>3</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="P6" s="45">
-        <f t="shared" ref="P6:P24" si="1">SUMPRODUCT($C$2:$N$2,C6:N6)</f>
-        <v>82</v>
-      </c>
-      <c r="Q6" s="48">
-        <f t="shared" ref="Q6:Q24" si="2">P6*20/$P$3</f>
-        <v>15.619047619047619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N6" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="O6" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C6:M6)</f>
+        <v>79</v>
+      </c>
+      <c r="P6" s="48">
+        <f t="shared" ref="P6:P24" si="0">O6*20/$O$3</f>
+        <v>16.631578947368421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="45">
         <v>3</v>
@@ -6755,24 +6419,21 @@
       <c r="M7" s="46">
         <v>4</v>
       </c>
-      <c r="N7" s="46">
-        <v>0</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="P7" s="45">
-        <f t="shared" si="1"/>
+      <c r="N7" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="O7" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C7:M7)</f>
         <v>44</v>
       </c>
-      <c r="Q7" s="48">
-        <f t="shared" si="2"/>
-        <v>8.3809523809523814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="48">
+        <f t="shared" si="0"/>
+        <v>9.2631578947368425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="45">
         <v>4</v>
@@ -6810,79 +6471,73 @@
       <c r="M8" s="46">
         <v>5</v>
       </c>
-      <c r="N8" s="46">
-        <v>5</v>
-      </c>
-      <c r="O8" s="45" t="s">
+      <c r="N8" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="O8" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C8:M8)</f>
+        <v>51</v>
+      </c>
+      <c r="P8" s="48">
+        <f t="shared" si="0"/>
+        <v>10.736842105263158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="45">
+        <v>5</v>
+      </c>
+      <c r="C9" s="46">
+        <v>5</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9" s="46">
+        <v>0</v>
+      </c>
+      <c r="K9" s="46">
+        <v>0</v>
+      </c>
+      <c r="L9" s="46">
+        <v>5</v>
+      </c>
+      <c r="M9" s="46">
+        <v>5</v>
+      </c>
+      <c r="N9" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="P8" s="45">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="Q8" s="48">
-        <f t="shared" si="2"/>
-        <v>10.666666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="O9" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C9:M9)</f>
+        <v>30</v>
+      </c>
+      <c r="P9" s="48">
+        <f t="shared" si="0"/>
+        <v>6.3157894736842106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
         <v>247</v>
-      </c>
-      <c r="B9" s="45">
-        <v>5</v>
-      </c>
-      <c r="C9" s="46">
-        <v>5</v>
-      </c>
-      <c r="D9" s="46">
-        <v>0</v>
-      </c>
-      <c r="E9" s="46">
-        <v>0</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="J9" s="46">
-        <v>0</v>
-      </c>
-      <c r="K9" s="46">
-        <v>0</v>
-      </c>
-      <c r="L9" s="46">
-        <v>5</v>
-      </c>
-      <c r="M9" s="46">
-        <v>5</v>
-      </c>
-      <c r="N9" s="46">
-        <v>3</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="P9" s="45">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="Q9" s="48">
-        <f t="shared" si="2"/>
-        <v>6.2857142857142856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>248</v>
       </c>
       <c r="B10" s="45">
         <v>6</v>
@@ -6920,24 +6575,21 @@
       <c r="M10" s="46">
         <v>5</v>
       </c>
-      <c r="N10" s="46">
-        <v>5</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="P10" s="45">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="Q10" s="48">
-        <f t="shared" si="2"/>
-        <v>7.0476190476190474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N10" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="O10" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C10:M10)</f>
+        <v>32</v>
+      </c>
+      <c r="P10" s="48">
+        <f t="shared" si="0"/>
+        <v>6.7368421052631575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="45">
         <v>7</v>
@@ -6975,24 +6627,21 @@
       <c r="M11" s="46">
         <v>5</v>
       </c>
-      <c r="N11" s="46">
-        <v>5</v>
-      </c>
-      <c r="O11" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="P11" s="45">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="Q11" s="48">
-        <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N11" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="O11" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C11:M11)</f>
+        <v>30</v>
+      </c>
+      <c r="P11" s="48">
+        <f t="shared" si="0"/>
+        <v>6.3157894736842106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" s="45">
         <v>8</v>
@@ -7010,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H12" s="46">
         <v>1</v>
@@ -7030,24 +6679,21 @@
       <c r="M12" s="46">
         <v>5</v>
       </c>
-      <c r="N12" s="46">
-        <v>1</v>
-      </c>
-      <c r="O12" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="P12" s="45">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="Q12" s="48">
-        <f t="shared" si="2"/>
-        <v>9.7142857142857135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N12" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="O12" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C12:M12)</f>
+        <v>50</v>
+      </c>
+      <c r="P12" s="48">
+        <f t="shared" si="0"/>
+        <v>10.526315789473685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" s="45">
         <v>9</v>
@@ -7068,7 +6714,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I13" s="46">
         <v>0</v>
@@ -7085,24 +6731,21 @@
       <c r="M13" s="46">
         <v>5</v>
       </c>
-      <c r="N13" s="46">
-        <v>3</v>
-      </c>
-      <c r="O13" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="P13" s="45">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="Q13" s="48">
-        <f t="shared" si="2"/>
-        <v>6.2857142857142856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N13" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="O13" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C13:M13)</f>
+        <v>30</v>
+      </c>
+      <c r="P13" s="48">
+        <f t="shared" si="0"/>
+        <v>6.3157894736842106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B14" s="45">
         <v>10</v>
@@ -7126,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J14" s="46">
         <v>2</v>
@@ -7140,24 +6783,21 @@
       <c r="M14" s="46">
         <v>5</v>
       </c>
-      <c r="N14" s="46">
-        <v>0</v>
-      </c>
-      <c r="O14" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="P14" s="45">
-        <f t="shared" si="1"/>
+      <c r="N14" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="O14" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C14:M14)</f>
         <v>46</v>
       </c>
-      <c r="Q14" s="48">
-        <f t="shared" si="2"/>
-        <v>8.7619047619047628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P14" s="48">
+        <f t="shared" si="0"/>
+        <v>9.6842105263157894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B15" s="45">
         <v>11</v>
@@ -7195,24 +6835,21 @@
       <c r="M15" s="46">
         <v>3</v>
       </c>
-      <c r="N15" s="46">
-        <v>0</v>
-      </c>
-      <c r="O15" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="P15" s="45">
-        <f t="shared" si="1"/>
+      <c r="N15" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="O15" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C15:M15)</f>
         <v>42</v>
       </c>
-      <c r="Q15" s="48">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P15" s="48">
+        <f t="shared" si="0"/>
+        <v>8.8421052631578956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B16" s="45">
         <v>12</v>
@@ -7242,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L16" s="46">
         <v>5</v>
@@ -7250,24 +6887,21 @@
       <c r="M16" s="46">
         <v>5</v>
       </c>
-      <c r="N16" s="46">
-        <v>5</v>
-      </c>
-      <c r="O16" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="P16" s="45">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="Q16" s="48">
-        <f t="shared" si="2"/>
-        <v>9.1428571428571423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N16" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="O16" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C16:M16)</f>
+        <v>43</v>
+      </c>
+      <c r="P16" s="48">
+        <f t="shared" si="0"/>
+        <v>9.0526315789473681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="45">
         <v>13</v>
@@ -7297,7 +6931,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L17" s="46">
         <v>5</v>
@@ -7305,24 +6939,21 @@
       <c r="M17" s="46">
         <v>5</v>
       </c>
-      <c r="N17" s="46">
-        <v>3</v>
-      </c>
-      <c r="O17" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="P17" s="45">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="Q17" s="48">
-        <f t="shared" si="2"/>
-        <v>10.666666666666666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N17" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="O17" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C17:M17)</f>
+        <v>53</v>
+      </c>
+      <c r="P17" s="48">
+        <f t="shared" si="0"/>
+        <v>11.157894736842104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" s="45">
         <v>14</v>
@@ -7349,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K18" s="46">
         <v>0</v>
@@ -7360,24 +6991,21 @@
       <c r="M18" s="46">
         <v>5</v>
       </c>
-      <c r="N18" s="46">
-        <v>2</v>
-      </c>
-      <c r="O18" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="P18" s="45">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="Q18" s="48">
-        <f t="shared" si="2"/>
-        <v>6.8571428571428568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N18" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="O18" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C18:M18)</f>
+        <v>34</v>
+      </c>
+      <c r="P18" s="48">
+        <f t="shared" si="0"/>
+        <v>7.1578947368421053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" s="45">
         <v>15</v>
@@ -7398,10 +7026,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J19" s="46">
         <v>0</v>
@@ -7415,24 +7043,21 @@
       <c r="M19" s="46">
         <v>0</v>
       </c>
-      <c r="N19" s="46">
-        <v>0</v>
-      </c>
-      <c r="O19" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="P19" s="45">
-        <f t="shared" si="1"/>
+      <c r="N19" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="O19" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C19:M19)</f>
         <v>19</v>
       </c>
-      <c r="Q19" s="48">
-        <f t="shared" si="2"/>
-        <v>3.6190476190476191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P19" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B20" s="45">
         <v>16</v>
@@ -7450,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H20" s="46">
         <v>1</v>
@@ -7470,24 +7095,21 @@
       <c r="M20" s="46">
         <v>5</v>
       </c>
-      <c r="N20" s="46">
-        <v>0</v>
-      </c>
-      <c r="O20" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="P20" s="45">
-        <f t="shared" si="1"/>
+      <c r="N20" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="O20" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C20:M20)</f>
         <v>42</v>
       </c>
-      <c r="Q20" s="48">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P20" s="48">
+        <f t="shared" si="0"/>
+        <v>8.8421052631578956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B21" s="45">
         <v>17</v>
@@ -7502,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G21" s="46">
         <v>0</v>
@@ -7525,24 +7147,21 @@
       <c r="M21" s="46">
         <v>0</v>
       </c>
-      <c r="N21" s="46">
-        <v>0</v>
-      </c>
-      <c r="O21" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="P21" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N21" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="O21" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C21:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B22" s="45">
         <v>18</v>
@@ -7554,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F22" s="46">
         <v>0</v>
@@ -7580,24 +7199,21 @@
       <c r="M22" s="46">
         <v>0</v>
       </c>
-      <c r="N22" s="46">
-        <v>0</v>
-      </c>
-      <c r="O22" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="P22" s="45">
-        <f t="shared" si="1"/>
+      <c r="N22" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="O22" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C22:M22)</f>
         <v>16</v>
       </c>
-      <c r="Q22" s="48">
-        <f t="shared" si="2"/>
-        <v>3.0476190476190474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P22" s="48">
+        <f t="shared" si="0"/>
+        <v>3.3684210526315788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" s="45">
         <v>19</v>
@@ -7635,24 +7251,21 @@
       <c r="M23" s="46">
         <v>5</v>
       </c>
-      <c r="N23" s="46">
-        <v>5</v>
-      </c>
-      <c r="O23" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="P23" s="45">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="Q23" s="48">
-        <f t="shared" si="2"/>
-        <v>6.0952380952380949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N23" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="O23" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C23:M23)</f>
+        <v>27</v>
+      </c>
+      <c r="P23" s="48">
+        <f t="shared" si="0"/>
+        <v>5.6842105263157894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24" s="45">
         <v>20</v>
@@ -7673,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I24" s="46">
         <v>0</v>
@@ -7690,26 +7303,23 @@
       <c r="M24" s="46">
         <v>5</v>
       </c>
-      <c r="N24" s="46">
-        <v>1</v>
-      </c>
-      <c r="O24" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="P24" s="45">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="Q24" s="48">
-        <f t="shared" si="2"/>
-        <v>8.5714285714285712</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q25" s="48"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q26" s="48"/>
+      <c r="N24" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="O24" s="45">
+        <f>SUMPRODUCT($C$2:$M$2,C24:M24)</f>
+        <v>44</v>
+      </c>
+      <c r="P24" s="48">
+        <f t="shared" si="0"/>
+        <v>9.2631578947368425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P25" s="48"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P26" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
